--- a/species.xlsx
+++ b/species.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\HabitatRecovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4FE87-1251-466A-A627-AE1AF1F27477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{66CF8C71-F571-4A69-920A-D783860CAA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{BBB8E670-FD30-408F-B694-695B488B79B0}"/>
   </bookViews>
@@ -250,12 +250,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,8 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +596,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1015,10 +1022,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C19" t="s">
@@ -1208,6 +1215,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -1436,12 +1449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1452,6 +1459,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C816B061-1CDD-439F-8C9F-29C9EF4FB231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E72DEF-7AF1-4F07-B46B-983AB5556665}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1470,23 +1494,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C816B061-1CDD-439F-8C9F-29C9EF4FB231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CBD582-CD76-4265-9BA2-35ECC89DA4D4}">
   <ds:schemaRefs>

--- a/species.xlsx
+++ b/species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{66CF8C71-F571-4A69-920A-D783860CAA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{66CF8C71-F571-4A69-920A-D783860CAA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F81F7A2-A556-47A6-8DAB-DB5BB827E5B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{BBB8E670-FD30-408F-B694-695B488B79B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBB8E670-FD30-408F-B694-695B488B79B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,18 +596,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -653,7 +653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -676,7 +676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -699,7 +699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -745,7 +745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -768,7 +768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -791,7 +791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -814,7 +814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -837,7 +837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -860,7 +860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -906,7 +906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -929,7 +929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -952,7 +952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -975,7 +975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -998,7 +998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1035,16 +1035,16 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
     <sortCondition ref="B2:B26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,6 +1221,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -1449,15 +1458,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C816B061-1CDD-439F-8C9F-29C9EF4FB231}">
   <ds:schemaRefs>
@@ -1476,6 +1476,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CBD582-CD76-4265-9BA2-35ECC89DA4D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E72DEF-7AF1-4F07-B46B-983AB5556665}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1492,12 +1500,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CBD582-CD76-4265-9BA2-35ECC89DA4D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/species.xlsx
+++ b/species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{66CF8C71-F571-4A69-920A-D783860CAA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F81F7A2-A556-47A6-8DAB-DB5BB827E5B6}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="14_{66CF8C71-F571-4A69-920A-D783860CAA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF89501-10D3-4119-8FD7-CD05CFEF549E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBB8E670-FD30-408F-B694-695B488B79B0}"/>
   </bookViews>
@@ -30,36 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="69">
   <si>
-    <t>Atriplex_patula</t>
-  </si>
-  <si>
-    <t>Glaux_maritima</t>
-  </si>
-  <si>
-    <t>Potentilla_anserina_pacifica</t>
-  </si>
-  <si>
-    <t>Salicornia_depressa</t>
-  </si>
-  <si>
-    <t>Spergularia_canadensis</t>
-  </si>
-  <si>
-    <t>Symphotrichium_subspicatum</t>
-  </si>
-  <si>
-    <t>Trifolium_wormskioldii</t>
-  </si>
-  <si>
-    <t>Triglochin_maritima</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Non_native</t>
-  </si>
-  <si>
     <t>Native</t>
   </si>
   <si>
@@ -216,12 +186,6 @@
     <t>cirsp</t>
   </si>
   <si>
-    <t>Juncus bufonius</t>
-  </si>
-  <si>
-    <t>jubu</t>
-  </si>
-  <si>
     <t>Epilobium ciliatum</t>
   </si>
   <si>
@@ -235,6 +199,42 @@
   </si>
   <si>
     <t>Polygonum fowlerii</t>
+  </si>
+  <si>
+    <t>Juncus gerardii</t>
+  </si>
+  <si>
+    <t>juge</t>
+  </si>
+  <si>
+    <t>Atriplex patula</t>
+  </si>
+  <si>
+    <t>Potentilla anserina pacifica</t>
+  </si>
+  <si>
+    <t>Salicornia depressa</t>
+  </si>
+  <si>
+    <t>Spergularia canadensis</t>
+  </si>
+  <si>
+    <t>Symphotrichium subspicatum</t>
+  </si>
+  <si>
+    <t>Triglochin maritima</t>
+  </si>
+  <si>
+    <t>Trifolium wormskioldii</t>
+  </si>
+  <si>
+    <t>Non-native</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Glaux maritima</t>
   </si>
 </sst>
 </file>
@@ -250,18 +250,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,7 +272,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +590,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,600 +603,600 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
         <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
         <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
         <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
